--- a/Pseudo Code/playerHealthyTest.xlsx
+++ b/Pseudo Code/playerHealthyTest.xlsx
@@ -77,21 +77,9 @@
     <t>health = getPlayerHealth(playerID) + healthIncrease</t>
   </si>
   <si>
-    <t>then setInjured(false boolean, playerId int)</t>
-  </si>
-  <si>
-    <t>checkHealthMax(health int,playerID int)</t>
-  </si>
-  <si>
     <t>else</t>
   </si>
   <si>
-    <t>print "Player is still injured"</t>
-  </si>
-  <si>
-    <t>setHealth(health int, playerID)</t>
-  </si>
-  <si>
     <t>\\sets injury to false as player is not longer injured</t>
   </si>
   <si>
@@ -101,7 +89,19 @@
     <t>INJURY_CLEAR int</t>
   </si>
   <si>
-    <t>health &gt;= INJURY_CLEAR</t>
+    <t xml:space="preserve">   health &gt;= INJURY_CLEAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   then setInjured(false boolean, playerId int)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   checkHealthMax(health int,playerID int)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   print "Player is still injured"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   setHealth(health int, playerID)</t>
   </si>
 </sst>
 </file>
@@ -458,7 +458,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,7 +538,7 @@
     <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -594,43 +594,43 @@
     <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
